--- a/Data/EC/NIT-8300287136.xlsx
+++ b/Data/EC/NIT-8300287136.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FFFEFBC-10F9-4870-8566-AABD744DC78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E928B7C-2D48-43F9-9883-7F341F479A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AF8B7A3D-03DB-453C-AD14-A2113AD079DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC4FF6B-8FA2-414B-B37E-3CE481458B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="119">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,49 +65,241 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8853344</t>
+  </si>
+  <si>
+    <t>ALEXANDER CABARCAS IMITOLA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>32907479</t>
+  </si>
+  <si>
+    <t>GLENDA PATRICIA ALVAREZ MENDOZA</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>73203400</t>
+  </si>
+  <si>
+    <t>JORGE LUIS TORRES JUNCO</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>1043635193</t>
+  </si>
+  <si>
+    <t>ADRIANA ISABEL PEREZ GUERRERO</t>
+  </si>
+  <si>
+    <t>32909926</t>
+  </si>
+  <si>
+    <t>DENIS ESTHER VILLA PUERTA</t>
+  </si>
+  <si>
+    <t>1047414039</t>
+  </si>
+  <si>
+    <t>SINDY PATRICIA HOYOS ANGULO</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>7919472</t>
+  </si>
+  <si>
+    <t>NAYIB NARVAEZ SANJUAN</t>
+  </si>
+  <si>
+    <t>1047486835</t>
+  </si>
+  <si>
+    <t>YERIS PAOLA GONZALES POLO</t>
+  </si>
+  <si>
+    <t>1068589515</t>
+  </si>
+  <si>
+    <t>ENILSA PATRICIA LOPEZ ALMANZA</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>1047498452</t>
+  </si>
+  <si>
+    <t>MARIA ALEJANDRA AGRESOTH RAMIREZ</t>
+  </si>
+  <si>
+    <t>1050967776</t>
+  </si>
+  <si>
+    <t>ARNEY ARRIETA AVILA</t>
+  </si>
+  <si>
+    <t>1043294874</t>
+  </si>
+  <si>
+    <t>CARLOS JAYR ESTEVEZ CARRIAZO</t>
+  </si>
+  <si>
+    <t>1047491405</t>
+  </si>
+  <si>
+    <t>AURA ISABEL PEREZ ROSADO</t>
+  </si>
+  <si>
+    <t>1047488919</t>
+  </si>
+  <si>
+    <t>ELIS PAOLA MARRUGO GREY</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1007313271</t>
+  </si>
+  <si>
+    <t>LISNEYS MENDOZA GONZALEZ</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>45553441</t>
+  </si>
+  <si>
+    <t>YESICA ECHAVEZ VALDEZ</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
     <t>1002202549</t>
   </si>
   <si>
     <t>YORDIS MANUEL MALLARINO VILLARREAL</t>
   </si>
   <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>45553441</t>
-  </si>
-  <si>
-    <t>YESICA ECHAVEZ VALDEZ</t>
-  </si>
-  <si>
-    <t>32907479</t>
-  </si>
-  <si>
-    <t>GLENDA PATRICIA ALVAREZ MENDOZA</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1047491405</t>
-  </si>
-  <si>
-    <t>AURA ISABEL PEREZ ROSADO</t>
+    <t>1143388552</t>
+  </si>
+  <si>
+    <t>IRINA PAOLA RAMOS PINO</t>
   </si>
   <si>
     <t>1007987367</t>
@@ -116,43 +308,22 @@
     <t>JOSE LUIS ACOSTA CASTRO</t>
   </si>
   <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
     <t>1095933813</t>
   </si>
   <si>
     <t>DEICY YURLEY RODRIGUEZ ZAMBRANO</t>
   </si>
   <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1068589515</t>
-  </si>
-  <si>
-    <t>ENILSA PATRICIA LOPEZ ALMANZA</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
+    <t>1123401989</t>
+  </si>
+  <si>
+    <t>MELITZA PAOLA MERIÑO MOLINA</t>
+  </si>
+  <si>
+    <t>1003715259</t>
+  </si>
+  <si>
+    <t>LINA MARCELA CONTRERAS CONTRERAS</t>
   </si>
   <si>
     <t>72431393</t>
@@ -161,10 +332,16 @@
     <t>JEFFREY JESUS PACHECO CASALINS</t>
   </si>
   <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
+    <t>1002185675</t>
+  </si>
+  <si>
+    <t>MICHELL JULIO CABALLERO</t>
+  </si>
+  <si>
+    <t>1143359093</t>
+  </si>
+  <si>
+    <t>LEIDY LAURA ROMERO MARTINEZ</t>
   </si>
   <si>
     <t>1002025689</t>
@@ -173,106 +350,16 @@
     <t>YURLEIDIS PATRICIA ALVAREZ LARA</t>
   </si>
   <si>
-    <t>2307</t>
-  </si>
-  <si>
     <t>1015396457</t>
   </si>
   <si>
     <t>JUAN CARLOS MORENO CASALLAS</t>
   </si>
   <si>
-    <t>73203400</t>
-  </si>
-  <si>
-    <t>JORGE LUIS TORRES JUNCO</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
     <t>1053003696</t>
   </si>
   <si>
     <t>KAREN JULIETH LEMA PEREZ</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1050967776</t>
-  </si>
-  <si>
-    <t>ARNEY ARRIETA AVILA</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1043294874</t>
-  </si>
-  <si>
-    <t>CARLOS JAYR ESTEVEZ CARRIAZO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -686,7 +773,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF9AA8C-2112-0F7A-12E8-B8EC8332F70A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18721D97-60B9-8B1A-E67A-6708BB4F1724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,8 +1124,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42AD6D9-0296-45F0-905B-BD58ADDE65A7}">
-  <dimension ref="B2:J263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33B620F-E4CF-4494-9F17-D6096EE1E2AB}">
+  <dimension ref="B2:J342"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1062,7 +1149,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1107,7 +1194,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1139,12 +1226,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10170176</v>
+        <v>13436596</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1155,17 +1242,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1192,13 +1279,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1215,10 +1302,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21333</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1238,10 +1325,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>30666</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1252,16 +1339,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>19200</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
         <v>1200000</v>
@@ -1281,13 +1368,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1298,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>16</v>
@@ -1310,7 +1397,7 @@
         <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1321,16 +1408,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
         <v>1200000</v>
@@ -1344,19 +1431,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1373,13 +1460,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1396,13 +1483,13 @@
         <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>19200</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1413,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1436,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1459,16 +1546,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
         <v>1160000</v>
@@ -1482,19 +1569,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1505,16 +1592,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
         <v>1160000</v>
@@ -1528,16 +1615,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1551,19 +1638,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1574,19 +1661,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1597,19 +1684,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F33" s="18">
-        <v>8000</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1620,16 +1707,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
         <v>1160000</v>
@@ -1643,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1666,19 +1753,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1689,16 +1776,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
         <v>1160000</v>
@@ -1712,19 +1799,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1735,16 +1822,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
         <v>1160000</v>
@@ -1758,19 +1845,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
-        <v>22666</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1781,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1804,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1827,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1850,19 +1937,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1873,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1896,16 +1983,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
         <v>1160000</v>
@@ -1919,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F47" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1942,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1965,16 +2052,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F49" s="18">
-        <v>40000</v>
+        <v>35574</v>
       </c>
       <c r="G49" s="18">
         <v>1160000</v>
@@ -1988,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G50" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2011,13 +2098,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -2034,19 +2121,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2057,13 +2144,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -2080,13 +2167,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2103,13 +2190,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2126,13 +2213,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2149,13 +2236,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2172,19 +2259,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2195,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F59" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2218,13 +2305,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2241,13 +2328,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2264,19 +2351,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
       </c>
       <c r="G62" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2287,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2310,19 +2397,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F64" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2333,19 +2420,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F65" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2356,13 +2443,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F66" s="18">
         <v>40000</v>
@@ -2379,19 +2466,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>1000000</v>
+        <v>2438700</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2402,19 +2489,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F68" s="18">
         <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>1160000</v>
+        <v>2438700</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2425,19 +2512,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F69" s="18">
         <v>40000</v>
       </c>
       <c r="G69" s="18">
-        <v>1000000</v>
+        <v>2438700</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2448,19 +2535,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>1000000</v>
+        <v>2438700</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2471,19 +2558,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>2438700</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2494,19 +2581,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>1160000</v>
+        <v>2438700</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2517,19 +2604,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F73" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G73" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2540,13 +2627,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
@@ -2563,13 +2650,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2586,13 +2673,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2609,19 +2696,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F77" s="18">
-        <v>13867</v>
+        <v>40000</v>
       </c>
       <c r="G77" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2632,19 +2719,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F78" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2655,16 +2742,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F79" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G79" s="18">
         <v>1160000</v>
@@ -2678,19 +2765,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G80" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2701,19 +2788,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F81" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G81" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2724,13 +2811,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F82" s="18">
         <v>46400</v>
@@ -2747,13 +2834,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F83" s="18">
         <v>46400</v>
@@ -2770,16 +2857,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G84" s="18">
         <v>1160000</v>
@@ -2793,19 +2880,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F85" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G85" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2816,19 +2903,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F86" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G86" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2839,16 +2926,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F87" s="18">
-        <v>35574</v>
+        <v>46400</v>
       </c>
       <c r="G87" s="18">
         <v>1160000</v>
@@ -2862,13 +2949,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F88" s="18">
         <v>46400</v>
@@ -2885,19 +2972,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F89" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G89" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2908,13 +2995,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F90" s="18">
         <v>46400</v>
@@ -2931,19 +3018,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F91" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G91" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2954,16 +3041,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G92" s="18">
         <v>1160000</v>
@@ -2977,13 +3064,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F93" s="18">
         <v>46400</v>
@@ -3000,19 +3087,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F94" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G94" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3023,19 +3110,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3046,16 +3133,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F96" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G96" s="18">
         <v>1160000</v>
@@ -3069,13 +3156,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F97" s="18">
         <v>46400</v>
@@ -3092,19 +3179,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F98" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G98" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3115,19 +3202,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F99" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G99" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3138,13 +3225,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F100" s="18">
         <v>46400</v>
@@ -3161,13 +3248,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F101" s="18">
         <v>46400</v>
@@ -3184,19 +3271,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F102" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G102" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3207,13 +3294,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F103" s="18">
         <v>46400</v>
@@ -3230,13 +3317,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F104" s="18">
         <v>46400</v>
@@ -3253,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F105" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G105" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3276,13 +3363,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F106" s="18">
         <v>46400</v>
@@ -3299,16 +3386,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F107" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G107" s="18">
         <v>1160000</v>
@@ -3322,13 +3409,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F108" s="18">
         <v>40000</v>
@@ -3345,19 +3432,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F109" s="18">
         <v>40000</v>
       </c>
       <c r="G109" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3368,19 +3455,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F110" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G110" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3391,19 +3478,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F111" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G111" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3414,19 +3501,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F112" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G112" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3437,13 +3524,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F113" s="18">
         <v>40000</v>
@@ -3460,19 +3547,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F114" s="18">
-        <v>40000</v>
+        <v>62000</v>
       </c>
       <c r="G114" s="18">
-        <v>1000000</v>
+        <v>1550000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3483,19 +3570,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F115" s="18">
-        <v>40000</v>
+        <v>62000</v>
       </c>
       <c r="G115" s="18">
-        <v>1000000</v>
+        <v>1550000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3506,19 +3593,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F116" s="18">
-        <v>46400</v>
+        <v>62000</v>
       </c>
       <c r="G116" s="18">
-        <v>1160000</v>
+        <v>1550000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3529,19 +3616,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F117" s="18">
-        <v>40000</v>
+        <v>62000</v>
       </c>
       <c r="G117" s="18">
-        <v>1000000</v>
+        <v>1550000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3552,19 +3639,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F118" s="18">
-        <v>40000</v>
+        <v>62000</v>
       </c>
       <c r="G118" s="18">
-        <v>1000000</v>
+        <v>1550000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3575,19 +3662,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F119" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G119" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3598,19 +3685,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F120" s="18">
-        <v>46400</v>
+        <v>28470</v>
       </c>
       <c r="G120" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3621,13 +3708,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F121" s="18">
         <v>40000</v>
@@ -3644,19 +3731,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F122" s="18">
         <v>40000</v>
       </c>
       <c r="G122" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3667,19 +3754,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F123" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G123" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3690,16 +3777,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F124" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G124" s="18">
         <v>1160000</v>
@@ -3713,16 +3800,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F125" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G125" s="18">
         <v>1160000</v>
@@ -3736,19 +3823,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F126" s="18">
         <v>40000</v>
       </c>
       <c r="G126" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3759,19 +3846,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F127" s="18">
         <v>40000</v>
       </c>
       <c r="G127" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3782,16 +3869,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F128" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G128" s="18">
         <v>1160000</v>
@@ -3805,13 +3892,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F129" s="18">
         <v>40000</v>
@@ -3828,16 +3915,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F130" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G130" s="18">
         <v>1160000</v>
@@ -3851,19 +3938,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F131" s="18">
         <v>40000</v>
       </c>
       <c r="G131" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3874,19 +3961,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D132" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E132" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="F132" s="18">
         <v>40000</v>
       </c>
       <c r="G132" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3897,16 +3984,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F133" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G133" s="18">
         <v>1160000</v>
@@ -3920,19 +4007,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F134" s="18">
         <v>40000</v>
       </c>
       <c r="G134" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3943,13 +4030,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F135" s="18">
         <v>40000</v>
@@ -3966,16 +4053,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F136" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G136" s="18">
         <v>1160000</v>
@@ -3989,16 +4076,16 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F137" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G137" s="18">
         <v>1160000</v>
@@ -4012,19 +4099,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F138" s="18">
         <v>40000</v>
       </c>
       <c r="G138" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4035,16 +4122,16 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F139" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G139" s="18">
         <v>1160000</v>
@@ -4058,16 +4145,16 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F140" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G140" s="18">
         <v>1160000</v>
@@ -4081,19 +4168,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F141" s="18">
         <v>40000</v>
       </c>
       <c r="G141" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4104,13 +4191,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F142" s="18">
         <v>40000</v>
@@ -4127,19 +4214,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F143" s="18">
         <v>40000</v>
       </c>
       <c r="G143" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4150,19 +4237,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F144" s="18">
         <v>40000</v>
       </c>
       <c r="G144" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4173,16 +4260,16 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F145" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G145" s="18">
         <v>1160000</v>
@@ -4196,16 +4283,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F146" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G146" s="18">
         <v>1160000</v>
@@ -4219,19 +4306,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F147" s="18">
         <v>40000</v>
       </c>
       <c r="G147" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4242,13 +4329,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F148" s="18">
         <v>40000</v>
@@ -4265,16 +4352,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F149" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G149" s="18">
         <v>1160000</v>
@@ -4288,19 +4375,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F150" s="18">
         <v>40000</v>
       </c>
       <c r="G150" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4311,16 +4398,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F151" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G151" s="18">
         <v>1160000</v>
@@ -4334,19 +4421,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F152" s="18">
         <v>40000</v>
       </c>
       <c r="G152" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4357,19 +4444,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F153" s="18">
         <v>40000</v>
       </c>
       <c r="G153" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4380,16 +4467,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F154" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G154" s="18">
         <v>1160000</v>
@@ -4403,19 +4490,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F155" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G155" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4426,16 +4513,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F156" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G156" s="18">
         <v>1160000</v>
@@ -4449,19 +4536,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F157" s="18">
         <v>40000</v>
       </c>
       <c r="G157" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4472,13 +4559,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F158" s="18">
         <v>40000</v>
@@ -4495,19 +4582,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F159" s="18">
         <v>40000</v>
       </c>
       <c r="G159" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4518,19 +4605,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F160" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G160" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4541,16 +4628,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F161" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G161" s="18">
         <v>1160000</v>
@@ -4564,19 +4651,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F162" s="18">
         <v>40000</v>
       </c>
       <c r="G162" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4587,13 +4674,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F163" s="18">
         <v>40000</v>
@@ -4610,16 +4697,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F164" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G164" s="18">
         <v>1160000</v>
@@ -4633,19 +4720,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F165" s="18">
         <v>40000</v>
       </c>
       <c r="G165" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4656,16 +4743,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F166" s="18">
-        <v>46400</v>
+        <v>30666</v>
       </c>
       <c r="G166" s="18">
         <v>1160000</v>
@@ -4679,19 +4766,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F167" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G167" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4702,13 +4789,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F168" s="18">
         <v>40000</v>
@@ -4725,13 +4812,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="F169" s="18">
         <v>40000</v>
@@ -4748,13 +4835,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="F170" s="18">
         <v>40000</v>
@@ -4771,19 +4858,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F171" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G171" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4794,19 +4881,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F172" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G172" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4817,19 +4904,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F173" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G173" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4840,19 +4927,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F174" s="18">
         <v>40000</v>
       </c>
       <c r="G174" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4863,19 +4950,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F175" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G175" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4886,19 +4973,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F176" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G176" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4909,13 +4996,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F177" s="18">
         <v>40000</v>
@@ -4932,19 +5019,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F178" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G178" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -4955,19 +5042,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F179" s="18">
         <v>40000</v>
       </c>
       <c r="G179" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -4978,13 +5065,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F180" s="18">
         <v>40000</v>
@@ -5001,19 +5088,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F181" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G181" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5024,13 +5111,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F182" s="18">
         <v>40000</v>
@@ -5047,13 +5134,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F183" s="18">
         <v>40000</v>
@@ -5070,19 +5157,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F184" s="18">
         <v>40000</v>
       </c>
       <c r="G184" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5093,13 +5180,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F185" s="18">
         <v>40000</v>
@@ -5116,19 +5203,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F186" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G186" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5139,19 +5226,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F187" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G187" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5162,19 +5249,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F188" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G188" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5185,13 +5272,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F189" s="18">
         <v>40000</v>
@@ -5208,19 +5295,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F190" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G190" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5231,19 +5318,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F191" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G191" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5254,19 +5341,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F192" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G192" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5277,13 +5364,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F193" s="18">
         <v>40000</v>
@@ -5300,13 +5387,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F194" s="18">
         <v>40000</v>
@@ -5323,13 +5410,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F195" s="18">
         <v>40000</v>
@@ -5346,19 +5433,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F196" s="18">
         <v>40000</v>
       </c>
       <c r="G196" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5369,19 +5456,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F197" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G197" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5392,19 +5479,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F198" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G198" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5415,13 +5502,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F199" s="18">
         <v>40000</v>
@@ -5438,13 +5525,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F200" s="18">
         <v>40000</v>
@@ -5461,19 +5548,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F201" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G201" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5484,13 +5571,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F202" s="18">
         <v>40000</v>
@@ -5507,19 +5594,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F203" s="18">
         <v>40000</v>
       </c>
       <c r="G203" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5530,13 +5617,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F204" s="18">
         <v>40000</v>
@@ -5553,19 +5640,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F205" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G205" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5576,19 +5663,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F206" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G206" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5599,13 +5686,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F207" s="18">
         <v>40000</v>
@@ -5622,19 +5709,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F208" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G208" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5645,19 +5732,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F209" s="18">
-        <v>40000</v>
+        <v>21333</v>
       </c>
       <c r="G209" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5668,13 +5755,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F210" s="18">
         <v>40000</v>
@@ -5691,13 +5778,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F211" s="18">
         <v>40000</v>
@@ -5714,19 +5801,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F212" s="18">
         <v>40000</v>
       </c>
       <c r="G212" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5737,13 +5824,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="F213" s="18">
         <v>40000</v>
@@ -5760,19 +5847,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="F214" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G214" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5783,19 +5870,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F215" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G215" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5806,13 +5893,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F216" s="18">
         <v>40000</v>
@@ -5829,19 +5916,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F217" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G217" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5852,13 +5939,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F218" s="18">
         <v>40000</v>
@@ -5875,19 +5962,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="F219" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G219" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -5898,13 +5985,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F220" s="18">
         <v>40000</v>
@@ -5921,19 +6008,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="F221" s="18">
         <v>40000</v>
       </c>
       <c r="G221" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -5944,13 +6031,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F222" s="18">
         <v>40000</v>
@@ -5967,19 +6054,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F223" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G223" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -5990,19 +6077,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F224" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G224" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6013,19 +6100,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F225" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G225" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6036,13 +6123,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F226" s="18">
         <v>40000</v>
@@ -6059,19 +6146,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F227" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G227" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6082,19 +6169,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F228" s="18">
         <v>40000</v>
       </c>
       <c r="G228" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6105,13 +6192,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F229" s="18">
         <v>40000</v>
@@ -6128,13 +6215,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F230" s="18">
         <v>40000</v>
@@ -6151,19 +6238,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F231" s="18">
-        <v>62000</v>
+        <v>40000</v>
       </c>
       <c r="G231" s="18">
-        <v>1550000</v>
+        <v>1000000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6174,19 +6261,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F232" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G232" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6197,13 +6284,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="F233" s="18">
         <v>40000</v>
@@ -6220,19 +6307,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F234" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G234" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6243,19 +6330,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D235" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E235" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E235" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="F235" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G235" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6266,19 +6353,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F236" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G236" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6289,13 +6376,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F237" s="18">
         <v>40000</v>
@@ -6312,19 +6399,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F238" s="18">
-        <v>62000</v>
+        <v>40000</v>
       </c>
       <c r="G238" s="18">
-        <v>1550000</v>
+        <v>1000000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6335,19 +6422,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F239" s="18">
         <v>40000</v>
       </c>
       <c r="G239" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6358,13 +6445,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F240" s="18">
         <v>40000</v>
@@ -6381,19 +6468,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F241" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G241" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6404,13 +6491,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F242" s="18">
         <v>40000</v>
@@ -6427,19 +6514,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F243" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G243" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6450,19 +6537,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F244" s="18">
         <v>40000</v>
       </c>
       <c r="G244" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6473,19 +6560,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F245" s="18">
-        <v>62000</v>
+        <v>40000</v>
       </c>
       <c r="G245" s="18">
-        <v>1550000</v>
+        <v>1000000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6496,10 +6583,10 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E246" s="16" t="s">
         <v>75</v>
@@ -6519,13 +6606,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F247" s="18">
         <v>40000</v>
@@ -6542,19 +6629,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F248" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G248" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6565,13 +6652,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F249" s="18">
         <v>40000</v>
@@ -6588,13 +6675,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F250" s="18">
         <v>40000</v>
@@ -6611,19 +6698,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F251" s="18">
-        <v>46400</v>
+        <v>8000</v>
       </c>
       <c r="G251" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6634,13 +6721,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F252" s="18">
         <v>40000</v>
@@ -6657,19 +6744,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F253" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G253" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6680,19 +6767,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F254" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G254" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6703,19 +6790,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F255" s="18">
-        <v>28470</v>
+        <v>40000</v>
       </c>
       <c r="G255" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6726,75 +6813,1892 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="F256" s="18">
         <v>40000</v>
       </c>
       <c r="G256" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
       <c r="J256" s="20"/>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B257" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="22" t="s">
+      <c r="B257" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F257" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G257" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H257" s="19"/>
+      <c r="I257" s="19"/>
+      <c r="J257" s="20"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B258" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F258" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G258" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H258" s="19"/>
+      <c r="I258" s="19"/>
+      <c r="J258" s="20"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B259" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F259" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G259" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H259" s="19"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="20"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B260" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E260" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F260" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G260" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H260" s="19"/>
+      <c r="I260" s="19"/>
+      <c r="J260" s="20"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B261" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F261" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G261" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H261" s="19"/>
+      <c r="I261" s="19"/>
+      <c r="J261" s="20"/>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B262" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E262" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F262" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G262" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H262" s="19"/>
+      <c r="I262" s="19"/>
+      <c r="J262" s="20"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B263" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E263" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F263" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G263" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H263" s="19"/>
+      <c r="I263" s="19"/>
+      <c r="J263" s="20"/>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B264" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E264" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F264" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G264" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H264" s="19"/>
+      <c r="I264" s="19"/>
+      <c r="J264" s="20"/>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B265" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E265" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F265" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G265" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H265" s="19"/>
+      <c r="I265" s="19"/>
+      <c r="J265" s="20"/>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B266" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E266" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F266" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G266" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H266" s="19"/>
+      <c r="I266" s="19"/>
+      <c r="J266" s="20"/>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B267" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C267" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D267" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E267" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F267" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G267" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H267" s="19"/>
+      <c r="I267" s="19"/>
+      <c r="J267" s="20"/>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B268" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D268" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E268" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F268" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G268" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H268" s="19"/>
+      <c r="I268" s="19"/>
+      <c r="J268" s="20"/>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B269" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D269" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E269" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F269" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G269" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H269" s="19"/>
+      <c r="I269" s="19"/>
+      <c r="J269" s="20"/>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B270" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D270" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E270" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F270" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G270" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H270" s="19"/>
+      <c r="I270" s="19"/>
+      <c r="J270" s="20"/>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B271" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D271" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E271" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F271" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G271" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H271" s="19"/>
+      <c r="I271" s="19"/>
+      <c r="J271" s="20"/>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B272" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D272" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F272" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G272" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H272" s="19"/>
+      <c r="I272" s="19"/>
+      <c r="J272" s="20"/>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B273" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D273" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E273" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F273" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G273" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H273" s="19"/>
+      <c r="I273" s="19"/>
+      <c r="J273" s="20"/>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B274" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D274" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E274" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F274" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G274" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H274" s="19"/>
+      <c r="I274" s="19"/>
+      <c r="J274" s="20"/>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B275" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E275" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F275" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G275" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H275" s="19"/>
+      <c r="I275" s="19"/>
+      <c r="J275" s="20"/>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B276" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D276" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F276" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G276" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H276" s="19"/>
+      <c r="I276" s="19"/>
+      <c r="J276" s="20"/>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B277" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D277" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E277" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F277" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G277" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H277" s="19"/>
+      <c r="I277" s="19"/>
+      <c r="J277" s="20"/>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B278" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F278" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G278" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H278" s="19"/>
+      <c r="I278" s="19"/>
+      <c r="J278" s="20"/>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B279" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D279" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E279" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F279" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G279" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H279" s="19"/>
+      <c r="I279" s="19"/>
+      <c r="J279" s="20"/>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B280" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F280" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G280" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H280" s="19"/>
+      <c r="I280" s="19"/>
+      <c r="J280" s="20"/>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B281" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E281" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F281" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G281" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H281" s="19"/>
+      <c r="I281" s="19"/>
+      <c r="J281" s="20"/>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B282" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E282" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F282" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G282" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H282" s="19"/>
+      <c r="I282" s="19"/>
+      <c r="J282" s="20"/>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B283" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E283" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F283" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G283" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H283" s="19"/>
+      <c r="I283" s="19"/>
+      <c r="J283" s="20"/>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B284" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E284" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F284" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G284" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H284" s="19"/>
+      <c r="I284" s="19"/>
+      <c r="J284" s="20"/>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B285" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D285" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E285" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D257" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E257" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F257" s="24">
-        <v>62000</v>
-      </c>
-      <c r="G257" s="24">
-        <v>1550000</v>
-      </c>
-      <c r="H257" s="25"/>
-      <c r="I257" s="25"/>
-      <c r="J257" s="26"/>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B262" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C262" s="32"/>
-      <c r="H262" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I262" s="1"/>
-      <c r="J262" s="1"/>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B263" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C263" s="32"/>
-      <c r="H263" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I263" s="1"/>
-      <c r="J263" s="1"/>
+      <c r="F285" s="18">
+        <v>22666</v>
+      </c>
+      <c r="G285" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H285" s="19"/>
+      <c r="I285" s="19"/>
+      <c r="J285" s="20"/>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B286" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D286" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E286" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G286" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H286" s="19"/>
+      <c r="I286" s="19"/>
+      <c r="J286" s="20"/>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B287" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D287" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E287" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F287" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G287" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H287" s="19"/>
+      <c r="I287" s="19"/>
+      <c r="J287" s="20"/>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B288" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D288" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E288" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F288" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G288" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H288" s="19"/>
+      <c r="I288" s="19"/>
+      <c r="J288" s="20"/>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B289" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F289" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G289" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H289" s="19"/>
+      <c r="I289" s="19"/>
+      <c r="J289" s="20"/>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B290" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D290" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E290" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F290" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G290" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H290" s="19"/>
+      <c r="I290" s="19"/>
+      <c r="J290" s="20"/>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B291" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E291" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F291" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G291" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H291" s="19"/>
+      <c r="I291" s="19"/>
+      <c r="J291" s="20"/>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B292" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D292" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E292" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F292" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G292" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H292" s="19"/>
+      <c r="I292" s="19"/>
+      <c r="J292" s="20"/>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B293" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D293" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E293" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F293" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G293" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H293" s="19"/>
+      <c r="I293" s="19"/>
+      <c r="J293" s="20"/>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B294" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D294" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E294" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F294" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G294" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H294" s="19"/>
+      <c r="I294" s="19"/>
+      <c r="J294" s="20"/>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B295" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D295" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F295" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G295" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H295" s="19"/>
+      <c r="I295" s="19"/>
+      <c r="J295" s="20"/>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B296" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D296" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E296" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F296" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G296" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H296" s="19"/>
+      <c r="I296" s="19"/>
+      <c r="J296" s="20"/>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B297" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D297" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E297" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F297" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G297" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H297" s="19"/>
+      <c r="I297" s="19"/>
+      <c r="J297" s="20"/>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B298" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D298" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E298" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F298" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G298" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H298" s="19"/>
+      <c r="I298" s="19"/>
+      <c r="J298" s="20"/>
+    </row>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B299" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D299" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E299" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F299" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G299" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H299" s="19"/>
+      <c r="I299" s="19"/>
+      <c r="J299" s="20"/>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B300" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D300" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E300" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F300" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G300" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H300" s="19"/>
+      <c r="I300" s="19"/>
+      <c r="J300" s="20"/>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B301" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D301" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E301" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F301" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G301" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H301" s="19"/>
+      <c r="I301" s="19"/>
+      <c r="J301" s="20"/>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B302" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C302" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D302" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E302" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F302" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G302" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H302" s="19"/>
+      <c r="I302" s="19"/>
+      <c r="J302" s="20"/>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B303" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E303" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F303" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G303" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H303" s="19"/>
+      <c r="I303" s="19"/>
+      <c r="J303" s="20"/>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B304" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D304" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E304" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F304" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G304" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H304" s="19"/>
+      <c r="I304" s="19"/>
+      <c r="J304" s="20"/>
+    </row>
+    <row r="305" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B305" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D305" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E305" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G305" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H305" s="19"/>
+      <c r="I305" s="19"/>
+      <c r="J305" s="20"/>
+    </row>
+    <row r="306" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B306" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D306" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E306" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F306" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G306" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H306" s="19"/>
+      <c r="I306" s="19"/>
+      <c r="J306" s="20"/>
+    </row>
+    <row r="307" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B307" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C307" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D307" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E307" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F307" s="18">
+        <v>13867</v>
+      </c>
+      <c r="G307" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H307" s="19"/>
+      <c r="I307" s="19"/>
+      <c r="J307" s="20"/>
+    </row>
+    <row r="308" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B308" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C308" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D308" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E308" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F308" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G308" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H308" s="19"/>
+      <c r="I308" s="19"/>
+      <c r="J308" s="20"/>
+    </row>
+    <row r="309" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B309" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E309" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F309" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G309" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H309" s="19"/>
+      <c r="I309" s="19"/>
+      <c r="J309" s="20"/>
+    </row>
+    <row r="310" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B310" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D310" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E310" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F310" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G310" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H310" s="19"/>
+      <c r="I310" s="19"/>
+      <c r="J310" s="20"/>
+    </row>
+    <row r="311" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B311" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D311" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E311" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F311" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G311" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H311" s="19"/>
+      <c r="I311" s="19"/>
+      <c r="J311" s="20"/>
+    </row>
+    <row r="312" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B312" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C312" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D312" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E312" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F312" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G312" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H312" s="19"/>
+      <c r="I312" s="19"/>
+      <c r="J312" s="20"/>
+    </row>
+    <row r="313" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B313" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C313" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D313" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E313" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F313" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G313" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H313" s="19"/>
+      <c r="I313" s="19"/>
+      <c r="J313" s="20"/>
+    </row>
+    <row r="314" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B314" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D314" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E314" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F314" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G314" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H314" s="19"/>
+      <c r="I314" s="19"/>
+      <c r="J314" s="20"/>
+    </row>
+    <row r="315" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B315" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D315" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E315" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F315" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G315" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H315" s="19"/>
+      <c r="I315" s="19"/>
+      <c r="J315" s="20"/>
+    </row>
+    <row r="316" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B316" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D316" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E316" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F316" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G316" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H316" s="19"/>
+      <c r="I316" s="19"/>
+      <c r="J316" s="20"/>
+    </row>
+    <row r="317" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B317" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C317" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D317" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E317" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F317" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G317" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H317" s="19"/>
+      <c r="I317" s="19"/>
+      <c r="J317" s="20"/>
+    </row>
+    <row r="318" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B318" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C318" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D318" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E318" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F318" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G318" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H318" s="19"/>
+      <c r="I318" s="19"/>
+      <c r="J318" s="20"/>
+    </row>
+    <row r="319" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B319" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D319" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E319" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F319" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G319" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H319" s="19"/>
+      <c r="I319" s="19"/>
+      <c r="J319" s="20"/>
+    </row>
+    <row r="320" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B320" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D320" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E320" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F320" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G320" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H320" s="19"/>
+      <c r="I320" s="19"/>
+      <c r="J320" s="20"/>
+    </row>
+    <row r="321" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B321" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C321" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D321" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E321" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F321" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G321" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H321" s="19"/>
+      <c r="I321" s="19"/>
+      <c r="J321" s="20"/>
+    </row>
+    <row r="322" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B322" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D322" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E322" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F322" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G322" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H322" s="19"/>
+      <c r="I322" s="19"/>
+      <c r="J322" s="20"/>
+    </row>
+    <row r="323" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B323" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D323" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E323" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F323" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G323" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H323" s="19"/>
+      <c r="I323" s="19"/>
+      <c r="J323" s="20"/>
+    </row>
+    <row r="324" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B324" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E324" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F324" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G324" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H324" s="19"/>
+      <c r="I324" s="19"/>
+      <c r="J324" s="20"/>
+    </row>
+    <row r="325" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B325" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C325" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D325" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E325" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F325" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G325" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H325" s="19"/>
+      <c r="I325" s="19"/>
+      <c r="J325" s="20"/>
+    </row>
+    <row r="326" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B326" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C326" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D326" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E326" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F326" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G326" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H326" s="19"/>
+      <c r="I326" s="19"/>
+      <c r="J326" s="20"/>
+    </row>
+    <row r="327" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B327" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D327" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E327" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F327" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G327" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H327" s="19"/>
+      <c r="I327" s="19"/>
+      <c r="J327" s="20"/>
+    </row>
+    <row r="328" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B328" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D328" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E328" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F328" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G328" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H328" s="19"/>
+      <c r="I328" s="19"/>
+      <c r="J328" s="20"/>
+    </row>
+    <row r="329" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B329" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D329" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E329" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F329" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G329" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H329" s="19"/>
+      <c r="I329" s="19"/>
+      <c r="J329" s="20"/>
+    </row>
+    <row r="330" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B330" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D330" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E330" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F330" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G330" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H330" s="19"/>
+      <c r="I330" s="19"/>
+      <c r="J330" s="20"/>
+    </row>
+    <row r="331" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B331" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D331" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E331" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F331" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G331" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H331" s="19"/>
+      <c r="I331" s="19"/>
+      <c r="J331" s="20"/>
+    </row>
+    <row r="332" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B332" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D332" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E332" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F332" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G332" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H332" s="19"/>
+      <c r="I332" s="19"/>
+      <c r="J332" s="20"/>
+    </row>
+    <row r="333" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B333" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D333" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E333" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F333" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G333" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H333" s="19"/>
+      <c r="I333" s="19"/>
+      <c r="J333" s="20"/>
+    </row>
+    <row r="334" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B334" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D334" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E334" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F334" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G334" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H334" s="19"/>
+      <c r="I334" s="19"/>
+      <c r="J334" s="20"/>
+    </row>
+    <row r="335" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B335" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D335" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F335" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G335" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H335" s="19"/>
+      <c r="I335" s="19"/>
+      <c r="J335" s="20"/>
+    </row>
+    <row r="336" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B336" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D336" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E336" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F336" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G336" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H336" s="25"/>
+      <c r="I336" s="25"/>
+      <c r="J336" s="26"/>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B341" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C341" s="32"/>
+      <c r="H341" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B342" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C342" s="32"/>
+      <c r="H342" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="H263:J263"/>
-    <mergeCell ref="H262:J262"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="H342:J342"/>
+    <mergeCell ref="H341:J341"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8300287136.xlsx
+++ b/Data/EC/NIT-8300287136.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6995DF59-9D5C-49A4-8626-66B78D688BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6916A9-6210-4DB0-B52B-7BE6E21251EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{964FA579-BEA5-40EA-9087-D9F3FDBC57DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7ECC6D1D-FEAA-4C30-8F44-69CB87874B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="97">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -334,7 +337,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,9 +392,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -404,7 +405,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -598,29 +601,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,19 +642,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,7 +713,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E3818C-18D6-BC2A-E103-BF83CF10C728}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AC229C-45EB-F0E1-8B29-785B87B1EA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,80 +1064,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A378FA3F-3540-4CD7-8715-AC292634B4B7}">
-  <dimension ref="B2:J285"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2584BC12-8974-46E2-ABB6-847E5AF85437}">
+  <dimension ref="B2:J296"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1138,13 +1147,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8300287136</v>
       </c>
@@ -1154,15 +1163,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>11234216</v>
+        <v>11766236</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1170,27 +1179,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5">
         <v>16</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1210,16 +1219,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1229,20 +1238,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>19200</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1200000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1252,20 +1261,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>30666</v>
       </c>
-      <c r="G17" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G17" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1275,20 +1284,20 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>21333</v>
       </c>
-      <c r="G18" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G18" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1298,20 +1307,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>48000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1200000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1321,20 +1330,20 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F20" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1344,20 +1353,20 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F21" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1367,20 +1376,20 @@
       <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F22" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1390,20 +1399,20 @@
       <c r="D23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F23" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1413,20 +1422,20 @@
       <c r="D24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F24" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1436,20 +1445,20 @@
       <c r="D25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F25" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1459,20 +1468,20 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F26" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1482,20 +1491,20 @@
       <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F27" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1505,20 +1514,20 @@
       <c r="D28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F28" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1528,20 +1537,20 @@
       <c r="D29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F29" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1551,20 +1560,20 @@
       <c r="D30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F30" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1574,20 +1583,20 @@
       <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F31" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1597,20 +1606,20 @@
       <c r="D32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F32" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1620,20 +1629,20 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F33" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1643,20 +1652,20 @@
       <c r="D34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F34" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1666,20 +1675,20 @@
       <c r="D35" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>8000</v>
       </c>
-      <c r="G35" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G35" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1689,20 +1698,20 @@
       <c r="D36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F36" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1712,20 +1721,20 @@
       <c r="D37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F37" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1735,20 +1744,20 @@
       <c r="D38" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F38" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1758,20 +1767,20 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F39" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1781,20 +1790,20 @@
       <c r="D40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F40" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1804,20 +1813,20 @@
       <c r="D41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F41" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1827,20 +1836,20 @@
       <c r="D42" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>22666</v>
       </c>
-      <c r="G42" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G42" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1850,20 +1859,20 @@
       <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F43" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1873,20 +1882,20 @@
       <c r="D44" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F44" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1896,20 +1905,20 @@
       <c r="D45" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F45" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1919,20 +1928,20 @@
       <c r="D46" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F46" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1942,20 +1951,20 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F47" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1965,20 +1974,20 @@
       <c r="D48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F48" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1988,20 +1997,20 @@
       <c r="D49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F49" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2011,20 +2020,20 @@
       <c r="D50" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F50" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2034,20 +2043,20 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F51" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2057,20 +2066,20 @@
       <c r="D52" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F52" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2080,20 +2089,20 @@
       <c r="D53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F53" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2103,20 +2112,20 @@
       <c r="D54" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F54" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2126,20 +2135,20 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F55" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2149,20 +2158,20 @@
       <c r="D56" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F56" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2172,20 +2181,20 @@
       <c r="D57" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F57" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2195,20 +2204,20 @@
       <c r="D58" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F58" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2218,20 +2227,20 @@
       <c r="D59" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F59" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2241,20 +2250,20 @@
       <c r="D60" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F60" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2264,20 +2273,20 @@
       <c r="D61" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F61" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2287,20 +2296,20 @@
       <c r="D62" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F62" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2310,20 +2319,20 @@
       <c r="D63" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F63" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2333,20 +2342,20 @@
       <c r="D64" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F64" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2356,20 +2365,20 @@
       <c r="D65" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F65" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2379,20 +2388,20 @@
       <c r="D66" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F66" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2402,20 +2411,20 @@
       <c r="D67" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F67" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G67" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2425,20 +2434,20 @@
       <c r="D68" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F68" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2448,20 +2457,20 @@
       <c r="D69" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F69" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2471,20 +2480,20 @@
       <c r="D70" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F70" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2494,20 +2503,20 @@
       <c r="D71" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F71" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2517,20 +2526,20 @@
       <c r="D72" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F72" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2540,20 +2549,20 @@
       <c r="D73" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F73" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G73" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2563,20 +2572,20 @@
       <c r="D74" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F74" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2586,20 +2595,20 @@
       <c r="D75" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F75" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2609,20 +2618,20 @@
       <c r="D76" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F76" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F76" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2632,20 +2641,20 @@
       <c r="D77" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F77" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F77" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G77" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2655,20 +2664,20 @@
       <c r="D78" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F78" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2678,20 +2687,20 @@
       <c r="D79" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F79" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F79" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G79" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2701,20 +2710,20 @@
       <c r="D80" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="19">
         <v>13867</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="19">
         <v>1444000</v>
       </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2724,20 +2733,20 @@
       <c r="D81" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>35574</v>
       </c>
-      <c r="G81" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G81" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2747,20 +2756,20 @@
       <c r="D82" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F82" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2770,20 +2779,20 @@
       <c r="D83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F83" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F83" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G83" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2793,20 +2802,20 @@
       <c r="D84" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F84" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2816,20 +2825,20 @@
       <c r="D85" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F85" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G85" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2839,20 +2848,20 @@
       <c r="D86" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F86" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2862,20 +2871,20 @@
       <c r="D87" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F87" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F87" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G87" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2885,20 +2894,20 @@
       <c r="D88" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F88" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F88" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G88" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -2908,20 +2917,20 @@
       <c r="D89" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F89" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F89" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G89" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -2931,20 +2940,20 @@
       <c r="D90" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F90" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F90" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -2954,20 +2963,20 @@
       <c r="D91" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F91" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F91" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G91" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -2977,20 +2986,20 @@
       <c r="D92" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F92" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F92" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G92" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -3000,20 +3009,20 @@
       <c r="D93" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F93" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F93" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G93" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
@@ -3023,20 +3032,20 @@
       <c r="D94" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F94" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F94" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
@@ -3046,20 +3055,20 @@
       <c r="D95" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F95" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F95" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G95" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
@@ -3069,20 +3078,20 @@
       <c r="D96" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F96" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F96" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G96" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
@@ -3092,20 +3101,20 @@
       <c r="D97" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F97" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G97" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F97" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G97" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3115,20 +3124,20 @@
       <c r="D98" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F98" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F98" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G98" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
@@ -3138,20 +3147,20 @@
       <c r="D99" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F99" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F99" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G99" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
@@ -3161,20 +3170,20 @@
       <c r="D100" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F100" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F100" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G100" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
@@ -3184,20 +3193,20 @@
       <c r="D101" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F101" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F101" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G101" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
+    </row>
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
@@ -3207,20 +3216,20 @@
       <c r="D102" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F102" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F102" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G102" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
@@ -3230,20 +3239,20 @@
       <c r="D103" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F103" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F103" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G103" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
+    </row>
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
@@ -3253,20 +3262,20 @@
       <c r="D104" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F104" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F104" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G104" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
+    </row>
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
@@ -3276,20 +3285,20 @@
       <c r="D105" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F105" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F105" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
+    </row>
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
@@ -3299,20 +3308,20 @@
       <c r="D106" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F106" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G106" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
+    </row>
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
@@ -3322,20 +3331,20 @@
       <c r="D107" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F107" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F107" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G107" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
+    </row>
+    <row r="108" spans="2:10">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
@@ -3345,20 +3354,20 @@
       <c r="D108" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F108" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F108" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G108" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
+    </row>
+    <row r="109" spans="2:10">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
@@ -3368,20 +3377,20 @@
       <c r="D109" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F109" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F109" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G109" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
+    </row>
+    <row r="110" spans="2:10">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
@@ -3391,20 +3400,20 @@
       <c r="D110" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F110" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F110" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G110" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
+    </row>
+    <row r="111" spans="2:10">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
@@ -3414,20 +3423,20 @@
       <c r="D111" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F111" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F111" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G111" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
+    </row>
+    <row r="112" spans="2:10">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
@@ -3437,20 +3446,20 @@
       <c r="D112" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F112" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G112" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F112" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G112" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
+    </row>
+    <row r="113" spans="2:10">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
@@ -3460,20 +3469,20 @@
       <c r="D113" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F113" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F113" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G113" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
+    </row>
+    <row r="114" spans="2:10">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
@@ -3483,20 +3492,20 @@
       <c r="D114" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F114" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F114" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G114" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
+    </row>
+    <row r="115" spans="2:10">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
@@ -3506,20 +3515,20 @@
       <c r="D115" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F115" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F115" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G115" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
+    </row>
+    <row r="116" spans="2:10">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
@@ -3529,20 +3538,20 @@
       <c r="D116" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F116" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G116" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F116" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G116" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
+    </row>
+    <row r="117" spans="2:10">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
@@ -3552,20 +3561,20 @@
       <c r="D117" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F117" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F117" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G117" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
+    </row>
+    <row r="118" spans="2:10">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
@@ -3575,20 +3584,20 @@
       <c r="D118" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F118" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G118" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F118" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G118" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
+    </row>
+    <row r="119" spans="2:10">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
@@ -3598,20 +3607,20 @@
       <c r="D119" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F119" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F119" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G119" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
+    </row>
+    <row r="120" spans="2:10">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
@@ -3621,20 +3630,20 @@
       <c r="D120" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F120" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G120" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F120" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G120" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
+    </row>
+    <row r="121" spans="2:10">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
@@ -3644,20 +3653,20 @@
       <c r="D121" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F121" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G121" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F121" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G121" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
+    </row>
+    <row r="122" spans="2:10">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
@@ -3667,20 +3676,20 @@
       <c r="D122" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F122" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G122" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F122" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G122" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
+    </row>
+    <row r="123" spans="2:10">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
@@ -3690,20 +3699,20 @@
       <c r="D123" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F123" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G123" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F123" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G123" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
+    </row>
+    <row r="124" spans="2:10">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
@@ -3713,20 +3722,20 @@
       <c r="D124" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F124" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G124" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F124" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G124" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
+    </row>
+    <row r="125" spans="2:10">
       <c r="B125" s="15" t="s">
         <v>8</v>
       </c>
@@ -3736,20 +3745,20 @@
       <c r="D125" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F125" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G125" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F125" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G125" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
+    </row>
+    <row r="126" spans="2:10">
       <c r="B126" s="15" t="s">
         <v>8</v>
       </c>
@@ -3759,20 +3768,20 @@
       <c r="D126" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F126" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G126" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F126" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G126" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
+    </row>
+    <row r="127" spans="2:10">
       <c r="B127" s="15" t="s">
         <v>8</v>
       </c>
@@ -3782,20 +3791,20 @@
       <c r="D127" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F127" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G127" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F127" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G127" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
+    </row>
+    <row r="128" spans="2:10">
       <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
@@ -3805,20 +3814,20 @@
       <c r="D128" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F128" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G128" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F128" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G128" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
+    </row>
+    <row r="129" spans="2:10">
       <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
@@ -3828,20 +3837,20 @@
       <c r="D129" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F129" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G129" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F129" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G129" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
+    </row>
+    <row r="130" spans="2:10">
       <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
@@ -3851,20 +3860,20 @@
       <c r="D130" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F130" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G130" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F130" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G130" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
+    </row>
+    <row r="131" spans="2:10">
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
@@ -3874,20 +3883,20 @@
       <c r="D131" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F131" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F131" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G131" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
+    </row>
+    <row r="132" spans="2:10">
       <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
@@ -3897,20 +3906,20 @@
       <c r="D132" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F132" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G132" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F132" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G132" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
+    </row>
+    <row r="133" spans="2:10">
       <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
@@ -3920,20 +3929,20 @@
       <c r="D133" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F133" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G133" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F133" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G133" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
+    </row>
+    <row r="134" spans="2:10">
       <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
@@ -3943,20 +3952,20 @@
       <c r="D134" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F134" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F134" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G134" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
+    </row>
+    <row r="135" spans="2:10">
       <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
@@ -3966,20 +3975,20 @@
       <c r="D135" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F135" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F135" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G135" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
+    </row>
+    <row r="136" spans="2:10">
       <c r="B136" s="15" t="s">
         <v>8</v>
       </c>
@@ -3989,20 +3998,20 @@
       <c r="D136" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F136" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G136" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F136" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G136" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
+    </row>
+    <row r="137" spans="2:10">
       <c r="B137" s="15" t="s">
         <v>8</v>
       </c>
@@ -4012,20 +4021,20 @@
       <c r="D137" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F137" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G137" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F137" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G137" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
+    </row>
+    <row r="138" spans="2:10">
       <c r="B138" s="15" t="s">
         <v>8</v>
       </c>
@@ -4035,20 +4044,20 @@
       <c r="D138" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F138" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G138" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F138" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G138" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
+    </row>
+    <row r="139" spans="2:10">
       <c r="B139" s="15" t="s">
         <v>8</v>
       </c>
@@ -4058,20 +4067,20 @@
       <c r="D139" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F139" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G139" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F139" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G139" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
+    </row>
+    <row r="140" spans="2:10">
       <c r="B140" s="15" t="s">
         <v>8</v>
       </c>
@@ -4081,20 +4090,20 @@
       <c r="D140" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F140" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G140" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F140" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G140" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
+    </row>
+    <row r="141" spans="2:10">
       <c r="B141" s="15" t="s">
         <v>8</v>
       </c>
@@ -4104,20 +4113,20 @@
       <c r="D141" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F141" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F141" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G141" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
+    </row>
+    <row r="142" spans="2:10">
       <c r="B142" s="15" t="s">
         <v>8</v>
       </c>
@@ -4127,20 +4136,20 @@
       <c r="D142" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F142" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G142" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F142" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G142" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
+    </row>
+    <row r="143" spans="2:10">
       <c r="B143" s="15" t="s">
         <v>8</v>
       </c>
@@ -4150,20 +4159,20 @@
       <c r="D143" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F143" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F143" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G143" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
+    </row>
+    <row r="144" spans="2:10">
       <c r="B144" s="15" t="s">
         <v>8</v>
       </c>
@@ -4173,20 +4182,20 @@
       <c r="D144" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F144" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F144" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G144" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
+    </row>
+    <row r="145" spans="2:10">
       <c r="B145" s="15" t="s">
         <v>8</v>
       </c>
@@ -4196,20 +4205,20 @@
       <c r="D145" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F145" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F145" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G145" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
+    </row>
+    <row r="146" spans="2:10">
       <c r="B146" s="15" t="s">
         <v>8</v>
       </c>
@@ -4219,20 +4228,20 @@
       <c r="D146" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F146" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F146" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G146" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
+    </row>
+    <row r="147" spans="2:10">
       <c r="B147" s="15" t="s">
         <v>8</v>
       </c>
@@ -4242,20 +4251,20 @@
       <c r="D147" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F147" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F147" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G147" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
+    </row>
+    <row r="148" spans="2:10">
       <c r="B148" s="15" t="s">
         <v>8</v>
       </c>
@@ -4265,20 +4274,20 @@
       <c r="D148" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F148" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G148" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F148" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G148" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
+    </row>
+    <row r="149" spans="2:10">
       <c r="B149" s="15" t="s">
         <v>8</v>
       </c>
@@ -4288,20 +4297,20 @@
       <c r="D149" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F149" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G149" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F149" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G149" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
+    </row>
+    <row r="150" spans="2:10">
       <c r="B150" s="15" t="s">
         <v>8</v>
       </c>
@@ -4311,20 +4320,20 @@
       <c r="D150" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F150" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G150" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F150" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G150" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
+    </row>
+    <row r="151" spans="2:10">
       <c r="B151" s="15" t="s">
         <v>8</v>
       </c>
@@ -4334,20 +4343,20 @@
       <c r="D151" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F151" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G151" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F151" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G151" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
+    </row>
+    <row r="152" spans="2:10">
       <c r="B152" s="15" t="s">
         <v>8</v>
       </c>
@@ -4357,20 +4366,20 @@
       <c r="D152" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F152" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G152" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F152" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G152" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
+    </row>
+    <row r="153" spans="2:10">
       <c r="B153" s="15" t="s">
         <v>8</v>
       </c>
@@ -4380,20 +4389,20 @@
       <c r="D153" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F153" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G153" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F153" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G153" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
+    </row>
+    <row r="154" spans="2:10">
       <c r="B154" s="15" t="s">
         <v>8</v>
       </c>
@@ -4403,20 +4412,20 @@
       <c r="D154" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F154" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G154" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F154" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G154" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
+    </row>
+    <row r="155" spans="2:10">
       <c r="B155" s="15" t="s">
         <v>8</v>
       </c>
@@ -4426,20 +4435,20 @@
       <c r="D155" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F155" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G155" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F155" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G155" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
+    </row>
+    <row r="156" spans="2:10">
       <c r="B156" s="15" t="s">
         <v>8</v>
       </c>
@@ -4449,20 +4458,20 @@
       <c r="D156" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F156" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G156" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F156" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G156" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
+    </row>
+    <row r="157" spans="2:10">
       <c r="B157" s="15" t="s">
         <v>8</v>
       </c>
@@ -4472,20 +4481,20 @@
       <c r="D157" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F157" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G157" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F157" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G157" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
+    </row>
+    <row r="158" spans="2:10">
       <c r="B158" s="15" t="s">
         <v>8</v>
       </c>
@@ -4495,20 +4504,20 @@
       <c r="D158" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F158" s="18">
+      <c r="F158" s="19">
         <v>52000</v>
       </c>
-      <c r="G158" s="18">
+      <c r="G158" s="19">
         <v>1300000</v>
       </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
+    </row>
+    <row r="159" spans="2:10">
       <c r="B159" s="15" t="s">
         <v>8</v>
       </c>
@@ -4518,20 +4527,20 @@
       <c r="D159" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F159" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G159" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F159" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G159" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
+    </row>
+    <row r="160" spans="2:10">
       <c r="B160" s="15" t="s">
         <v>8</v>
       </c>
@@ -4541,20 +4550,20 @@
       <c r="D160" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F160" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G160" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F160" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G160" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
+    </row>
+    <row r="161" spans="2:10">
       <c r="B161" s="15" t="s">
         <v>8</v>
       </c>
@@ -4564,20 +4573,20 @@
       <c r="D161" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F161" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G161" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F161" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G161" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
+    </row>
+    <row r="162" spans="2:10">
       <c r="B162" s="15" t="s">
         <v>8</v>
       </c>
@@ -4587,20 +4596,20 @@
       <c r="D162" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F162" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G162" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F162" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G162" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
+    </row>
+    <row r="163" spans="2:10">
       <c r="B163" s="15" t="s">
         <v>8</v>
       </c>
@@ -4610,20 +4619,20 @@
       <c r="D163" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F163" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G163" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F163" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G163" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
+    </row>
+    <row r="164" spans="2:10">
       <c r="B164" s="15" t="s">
         <v>8</v>
       </c>
@@ -4633,20 +4642,20 @@
       <c r="D164" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F164" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G164" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F164" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G164" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
+    </row>
+    <row r="165" spans="2:10">
       <c r="B165" s="15" t="s">
         <v>8</v>
       </c>
@@ -4656,20 +4665,20 @@
       <c r="D165" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F165" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G165" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F165" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G165" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
+    </row>
+    <row r="166" spans="2:10">
       <c r="B166" s="15" t="s">
         <v>8</v>
       </c>
@@ -4679,20 +4688,20 @@
       <c r="D166" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F166" s="18">
+      <c r="F166" s="19">
         <v>52000</v>
       </c>
-      <c r="G166" s="18">
+      <c r="G166" s="19">
         <v>1300000</v>
       </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
+    </row>
+    <row r="167" spans="2:10">
       <c r="B167" s="15" t="s">
         <v>8</v>
       </c>
@@ -4702,20 +4711,20 @@
       <c r="D167" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F167" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G167" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F167" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G167" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
+    </row>
+    <row r="168" spans="2:10">
       <c r="B168" s="15" t="s">
         <v>8</v>
       </c>
@@ -4725,20 +4734,20 @@
       <c r="D168" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F168" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G168" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F168" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G168" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
+    </row>
+    <row r="169" spans="2:10">
       <c r="B169" s="15" t="s">
         <v>8</v>
       </c>
@@ -4748,20 +4757,20 @@
       <c r="D169" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F169" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G169" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F169" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G169" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
+    </row>
+    <row r="170" spans="2:10">
       <c r="B170" s="15" t="s">
         <v>8</v>
       </c>
@@ -4771,20 +4780,20 @@
       <c r="D170" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F170" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G170" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F170" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G170" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
+    </row>
+    <row r="171" spans="2:10">
       <c r="B171" s="15" t="s">
         <v>8</v>
       </c>
@@ -4794,20 +4803,20 @@
       <c r="D171" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F171" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G171" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F171" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G171" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="21"/>
+    </row>
+    <row r="172" spans="2:10">
       <c r="B172" s="15" t="s">
         <v>8</v>
       </c>
@@ -4817,20 +4826,20 @@
       <c r="D172" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F172" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G172" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F172" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G172" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="21"/>
+    </row>
+    <row r="173" spans="2:10">
       <c r="B173" s="15" t="s">
         <v>8</v>
       </c>
@@ -4840,20 +4849,20 @@
       <c r="D173" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F173" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G173" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F173" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G173" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="21"/>
+    </row>
+    <row r="174" spans="2:10">
       <c r="B174" s="15" t="s">
         <v>8</v>
       </c>
@@ -4863,20 +4872,20 @@
       <c r="D174" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F174" s="18">
+      <c r="F174" s="19">
         <v>52000</v>
       </c>
-      <c r="G174" s="18">
+      <c r="G174" s="19">
         <v>1300000</v>
       </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="21"/>
+    </row>
+    <row r="175" spans="2:10">
       <c r="B175" s="15" t="s">
         <v>8</v>
       </c>
@@ -4886,20 +4895,20 @@
       <c r="D175" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F175" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G175" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F175" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G175" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="21"/>
+    </row>
+    <row r="176" spans="2:10">
       <c r="B176" s="15" t="s">
         <v>8</v>
       </c>
@@ -4909,20 +4918,20 @@
       <c r="D176" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F176" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G176" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F176" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G176" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="21"/>
+    </row>
+    <row r="177" spans="2:10">
       <c r="B177" s="15" t="s">
         <v>8</v>
       </c>
@@ -4932,20 +4941,20 @@
       <c r="D177" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F177" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G177" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F177" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G177" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="21"/>
+    </row>
+    <row r="178" spans="2:10">
       <c r="B178" s="15" t="s">
         <v>8</v>
       </c>
@@ -4955,20 +4964,20 @@
       <c r="D178" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F178" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G178" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F178" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G178" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="21"/>
+    </row>
+    <row r="179" spans="2:10">
       <c r="B179" s="15" t="s">
         <v>8</v>
       </c>
@@ -4978,20 +4987,20 @@
       <c r="D179" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F179" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G179" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F179" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G179" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="21"/>
+    </row>
+    <row r="180" spans="2:10">
       <c r="B180" s="15" t="s">
         <v>8</v>
       </c>
@@ -5001,20 +5010,20 @@
       <c r="D180" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F180" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G180" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F180" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G180" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="21"/>
+    </row>
+    <row r="181" spans="2:10">
       <c r="B181" s="15" t="s">
         <v>8</v>
       </c>
@@ -5024,20 +5033,20 @@
       <c r="D181" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F181" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G181" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F181" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G181" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="21"/>
+    </row>
+    <row r="182" spans="2:10">
       <c r="B182" s="15" t="s">
         <v>8</v>
       </c>
@@ -5047,20 +5056,20 @@
       <c r="D182" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="E182" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F182" s="18">
+      <c r="F182" s="19">
         <v>52000</v>
       </c>
-      <c r="G182" s="18">
+      <c r="G182" s="19">
         <v>1300000</v>
       </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="21"/>
+    </row>
+    <row r="183" spans="2:10">
       <c r="B183" s="15" t="s">
         <v>8</v>
       </c>
@@ -5070,20 +5079,20 @@
       <c r="D183" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E183" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F183" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G183" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F183" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G183" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="21"/>
+    </row>
+    <row r="184" spans="2:10">
       <c r="B184" s="15" t="s">
         <v>8</v>
       </c>
@@ -5093,20 +5102,20 @@
       <c r="D184" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E184" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F184" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G184" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F184" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G184" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="21"/>
+    </row>
+    <row r="185" spans="2:10">
       <c r="B185" s="15" t="s">
         <v>8</v>
       </c>
@@ -5116,20 +5125,20 @@
       <c r="D185" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E185" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F185" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G185" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F185" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G185" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="21"/>
+    </row>
+    <row r="186" spans="2:10">
       <c r="B186" s="15" t="s">
         <v>8</v>
       </c>
@@ -5139,20 +5148,20 @@
       <c r="D186" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="E186" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F186" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G186" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F186" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G186" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="21"/>
+    </row>
+    <row r="187" spans="2:10">
       <c r="B187" s="15" t="s">
         <v>8</v>
       </c>
@@ -5162,20 +5171,20 @@
       <c r="D187" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F187" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G187" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F187" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G187" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="21"/>
+    </row>
+    <row r="188" spans="2:10">
       <c r="B188" s="15" t="s">
         <v>8</v>
       </c>
@@ -5185,20 +5194,20 @@
       <c r="D188" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="E188" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F188" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G188" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F188" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G188" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="21"/>
+    </row>
+    <row r="189" spans="2:10">
       <c r="B189" s="15" t="s">
         <v>8</v>
       </c>
@@ -5208,20 +5217,20 @@
       <c r="D189" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="E189" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F189" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G189" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F189" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G189" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="21"/>
+    </row>
+    <row r="190" spans="2:10">
       <c r="B190" s="15" t="s">
         <v>8</v>
       </c>
@@ -5231,20 +5240,20 @@
       <c r="D190" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E190" s="16" t="s">
+      <c r="E190" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F190" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G190" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F190" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G190" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="21"/>
+    </row>
+    <row r="191" spans="2:10">
       <c r="B191" s="15" t="s">
         <v>8</v>
       </c>
@@ -5254,20 +5263,20 @@
       <c r="D191" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="E191" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F191" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G191" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F191" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G191" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="21"/>
+    </row>
+    <row r="192" spans="2:10">
       <c r="B192" s="15" t="s">
         <v>8</v>
       </c>
@@ -5277,20 +5286,20 @@
       <c r="D192" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E192" s="16" t="s">
+      <c r="E192" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F192" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G192" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F192" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G192" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="21"/>
+    </row>
+    <row r="193" spans="2:10">
       <c r="B193" s="15" t="s">
         <v>8</v>
       </c>
@@ -5300,20 +5309,20 @@
       <c r="D193" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E193" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F193" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G193" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F193" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G193" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="21"/>
+    </row>
+    <row r="194" spans="2:10">
       <c r="B194" s="15" t="s">
         <v>8</v>
       </c>
@@ -5323,20 +5332,20 @@
       <c r="D194" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="E194" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F194" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G194" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F194" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G194" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
+    </row>
+    <row r="195" spans="2:10">
       <c r="B195" s="15" t="s">
         <v>8</v>
       </c>
@@ -5346,20 +5355,20 @@
       <c r="D195" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E195" s="16" t="s">
+      <c r="E195" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F195" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G195" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F195" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G195" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="21"/>
+    </row>
+    <row r="196" spans="2:10">
       <c r="B196" s="15" t="s">
         <v>8</v>
       </c>
@@ -5369,20 +5378,20 @@
       <c r="D196" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E196" s="16" t="s">
+      <c r="E196" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F196" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G196" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F196" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G196" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="21"/>
+    </row>
+    <row r="197" spans="2:10">
       <c r="B197" s="15" t="s">
         <v>8</v>
       </c>
@@ -5392,20 +5401,20 @@
       <c r="D197" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E197" s="16" t="s">
+      <c r="E197" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F197" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G197" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F197" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G197" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="21"/>
+    </row>
+    <row r="198" spans="2:10">
       <c r="B198" s="15" t="s">
         <v>8</v>
       </c>
@@ -5415,20 +5424,20 @@
       <c r="D198" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E198" s="16" t="s">
+      <c r="E198" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F198" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G198" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F198" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G198" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="21"/>
+    </row>
+    <row r="199" spans="2:10">
       <c r="B199" s="15" t="s">
         <v>8</v>
       </c>
@@ -5438,20 +5447,20 @@
       <c r="D199" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="16" t="s">
+      <c r="E199" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F199" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G199" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F199" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G199" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="21"/>
+    </row>
+    <row r="200" spans="2:10">
       <c r="B200" s="15" t="s">
         <v>8</v>
       </c>
@@ -5461,20 +5470,20 @@
       <c r="D200" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E200" s="16" t="s">
+      <c r="E200" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F200" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G200" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F200" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G200" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="21"/>
+    </row>
+    <row r="201" spans="2:10">
       <c r="B201" s="15" t="s">
         <v>8</v>
       </c>
@@ -5484,20 +5493,20 @@
       <c r="D201" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E201" s="16" t="s">
+      <c r="E201" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F201" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G201" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F201" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G201" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="21"/>
+    </row>
+    <row r="202" spans="2:10">
       <c r="B202" s="15" t="s">
         <v>8</v>
       </c>
@@ -5507,20 +5516,20 @@
       <c r="D202" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E202" s="16" t="s">
+      <c r="E202" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F202" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G202" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F202" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G202" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="21"/>
+    </row>
+    <row r="203" spans="2:10">
       <c r="B203" s="15" t="s">
         <v>8</v>
       </c>
@@ -5530,20 +5539,20 @@
       <c r="D203" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E203" s="16" t="s">
+      <c r="E203" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F203" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G203" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F203" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G203" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="21"/>
+    </row>
+    <row r="204" spans="2:10">
       <c r="B204" s="15" t="s">
         <v>8</v>
       </c>
@@ -5553,20 +5562,20 @@
       <c r="D204" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E204" s="16" t="s">
+      <c r="E204" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F204" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G204" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F204" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G204" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="21"/>
+    </row>
+    <row r="205" spans="2:10">
       <c r="B205" s="15" t="s">
         <v>8</v>
       </c>
@@ -5576,20 +5585,20 @@
       <c r="D205" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E205" s="16" t="s">
+      <c r="E205" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F205" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G205" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F205" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G205" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="21"/>
+    </row>
+    <row r="206" spans="2:10">
       <c r="B206" s="15" t="s">
         <v>8</v>
       </c>
@@ -5599,20 +5608,20 @@
       <c r="D206" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E206" s="16" t="s">
+      <c r="E206" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F206" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G206" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F206" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G206" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="21"/>
+    </row>
+    <row r="207" spans="2:10">
       <c r="B207" s="15" t="s">
         <v>8</v>
       </c>
@@ -5622,20 +5631,20 @@
       <c r="D207" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E207" s="16" t="s">
+      <c r="E207" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F207" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G207" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F207" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G207" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="21"/>
+    </row>
+    <row r="208" spans="2:10">
       <c r="B208" s="15" t="s">
         <v>8</v>
       </c>
@@ -5645,20 +5654,20 @@
       <c r="D208" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E208" s="16" t="s">
+      <c r="E208" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F208" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G208" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F208" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G208" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="21"/>
+    </row>
+    <row r="209" spans="2:10">
       <c r="B209" s="15" t="s">
         <v>8</v>
       </c>
@@ -5668,20 +5677,20 @@
       <c r="D209" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E209" s="16" t="s">
+      <c r="E209" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F209" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G209" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F209" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G209" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="21"/>
+    </row>
+    <row r="210" spans="2:10">
       <c r="B210" s="15" t="s">
         <v>8</v>
       </c>
@@ -5691,20 +5700,20 @@
       <c r="D210" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E210" s="16" t="s">
+      <c r="E210" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F210" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G210" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F210" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G210" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="21"/>
+    </row>
+    <row r="211" spans="2:10">
       <c r="B211" s="15" t="s">
         <v>8</v>
       </c>
@@ -5714,20 +5723,20 @@
       <c r="D211" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E211" s="16" t="s">
+      <c r="E211" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F211" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G211" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F211" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G211" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="21"/>
+    </row>
+    <row r="212" spans="2:10">
       <c r="B212" s="15" t="s">
         <v>8</v>
       </c>
@@ -5737,20 +5746,20 @@
       <c r="D212" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F212" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G212" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F212" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G212" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="21"/>
+    </row>
+    <row r="213" spans="2:10">
       <c r="B213" s="15" t="s">
         <v>8</v>
       </c>
@@ -5760,20 +5769,20 @@
       <c r="D213" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E213" s="16" t="s">
+      <c r="E213" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F213" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G213" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F213" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G213" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="21"/>
+    </row>
+    <row r="214" spans="2:10">
       <c r="B214" s="15" t="s">
         <v>8</v>
       </c>
@@ -5783,20 +5792,20 @@
       <c r="D214" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E214" s="16" t="s">
+      <c r="E214" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F214" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G214" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F214" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G214" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="21"/>
+    </row>
+    <row r="215" spans="2:10">
       <c r="B215" s="15" t="s">
         <v>8</v>
       </c>
@@ -5806,20 +5815,20 @@
       <c r="D215" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E215" s="16" t="s">
+      <c r="E215" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F215" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G215" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F215" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G215" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="21"/>
+    </row>
+    <row r="216" spans="2:10">
       <c r="B216" s="15" t="s">
         <v>8</v>
       </c>
@@ -5829,20 +5838,20 @@
       <c r="D216" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E216" s="16" t="s">
+      <c r="E216" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F216" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G216" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F216" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G216" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="21"/>
+    </row>
+    <row r="217" spans="2:10">
       <c r="B217" s="15" t="s">
         <v>8</v>
       </c>
@@ -5852,20 +5861,20 @@
       <c r="D217" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E217" s="16" t="s">
+      <c r="E217" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F217" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G217" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F217" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G217" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="21"/>
+    </row>
+    <row r="218" spans="2:10">
       <c r="B218" s="15" t="s">
         <v>8</v>
       </c>
@@ -5875,20 +5884,20 @@
       <c r="D218" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E218" s="16" t="s">
+      <c r="E218" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F218" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G218" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F218" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G218" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="21"/>
+    </row>
+    <row r="219" spans="2:10">
       <c r="B219" s="15" t="s">
         <v>8</v>
       </c>
@@ -5898,20 +5907,20 @@
       <c r="D219" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E219" s="16" t="s">
+      <c r="E219" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F219" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G219" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F219" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G219" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="21"/>
+    </row>
+    <row r="220" spans="2:10">
       <c r="B220" s="15" t="s">
         <v>8</v>
       </c>
@@ -5921,20 +5930,20 @@
       <c r="D220" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E220" s="16" t="s">
+      <c r="E220" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F220" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G220" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F220" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G220" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="21"/>
+    </row>
+    <row r="221" spans="2:10">
       <c r="B221" s="15" t="s">
         <v>8</v>
       </c>
@@ -5944,20 +5953,20 @@
       <c r="D221" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E221" s="16" t="s">
+      <c r="E221" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F221" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G221" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F221" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G221" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="21"/>
+    </row>
+    <row r="222" spans="2:10">
       <c r="B222" s="15" t="s">
         <v>8</v>
       </c>
@@ -5967,20 +5976,20 @@
       <c r="D222" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E222" s="16" t="s">
+      <c r="E222" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F222" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G222" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F222" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G222" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H222" s="20"/>
+      <c r="I222" s="20"/>
+      <c r="J222" s="21"/>
+    </row>
+    <row r="223" spans="2:10">
       <c r="B223" s="15" t="s">
         <v>8</v>
       </c>
@@ -5990,20 +5999,20 @@
       <c r="D223" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E223" s="16" t="s">
+      <c r="E223" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F223" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G223" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F223" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G223" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="21"/>
+    </row>
+    <row r="224" spans="2:10">
       <c r="B224" s="15" t="s">
         <v>8</v>
       </c>
@@ -6013,20 +6022,20 @@
       <c r="D224" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E224" s="16" t="s">
+      <c r="E224" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F224" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G224" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F224" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G224" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="21"/>
+    </row>
+    <row r="225" spans="2:10">
       <c r="B225" s="15" t="s">
         <v>8</v>
       </c>
@@ -6036,20 +6045,20 @@
       <c r="D225" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E225" s="16" t="s">
+      <c r="E225" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F225" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G225" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F225" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G225" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+      <c r="J225" s="21"/>
+    </row>
+    <row r="226" spans="2:10">
       <c r="B226" s="15" t="s">
         <v>8</v>
       </c>
@@ -6059,20 +6068,20 @@
       <c r="D226" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E226" s="16" t="s">
+      <c r="E226" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F226" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G226" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F226" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G226" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="21"/>
+    </row>
+    <row r="227" spans="2:10">
       <c r="B227" s="15" t="s">
         <v>8</v>
       </c>
@@ -6082,20 +6091,20 @@
       <c r="D227" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E227" s="16" t="s">
+      <c r="E227" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F227" s="18">
+      <c r="F227" s="19">
         <v>62000</v>
       </c>
-      <c r="G227" s="18">
+      <c r="G227" s="19">
         <v>1550000</v>
       </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="21"/>
+    </row>
+    <row r="228" spans="2:10">
       <c r="B228" s="15" t="s">
         <v>8</v>
       </c>
@@ -6105,20 +6114,20 @@
       <c r="D228" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E228" s="16" t="s">
+      <c r="E228" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F228" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G228" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F228" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G228" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H228" s="20"/>
+      <c r="I228" s="20"/>
+      <c r="J228" s="21"/>
+    </row>
+    <row r="229" spans="2:10">
       <c r="B229" s="15" t="s">
         <v>8</v>
       </c>
@@ -6128,20 +6137,20 @@
       <c r="D229" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E229" s="16" t="s">
+      <c r="E229" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F229" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G229" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F229" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G229" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H229" s="20"/>
+      <c r="I229" s="20"/>
+      <c r="J229" s="21"/>
+    </row>
+    <row r="230" spans="2:10">
       <c r="B230" s="15" t="s">
         <v>8</v>
       </c>
@@ -6151,20 +6160,20 @@
       <c r="D230" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E230" s="16" t="s">
+      <c r="E230" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F230" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G230" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="20"/>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F230" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G230" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H230" s="20"/>
+      <c r="I230" s="20"/>
+      <c r="J230" s="21"/>
+    </row>
+    <row r="231" spans="2:10">
       <c r="B231" s="15" t="s">
         <v>8</v>
       </c>
@@ -6174,20 +6183,20 @@
       <c r="D231" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E231" s="16" t="s">
+      <c r="E231" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F231" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G231" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="20"/>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F231" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G231" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="21"/>
+    </row>
+    <row r="232" spans="2:10">
       <c r="B232" s="15" t="s">
         <v>8</v>
       </c>
@@ -6197,20 +6206,20 @@
       <c r="D232" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E232" s="16" t="s">
+      <c r="E232" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F232" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G232" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="20"/>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F232" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G232" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="21"/>
+    </row>
+    <row r="233" spans="2:10">
       <c r="B233" s="15" t="s">
         <v>8</v>
       </c>
@@ -6220,20 +6229,20 @@
       <c r="D233" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E233" s="16" t="s">
+      <c r="E233" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F233" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G233" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="20"/>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F233" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G233" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="21"/>
+    </row>
+    <row r="234" spans="2:10">
       <c r="B234" s="15" t="s">
         <v>8</v>
       </c>
@@ -6243,20 +6252,20 @@
       <c r="D234" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E234" s="16" t="s">
+      <c r="E234" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F234" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G234" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="20"/>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F234" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G234" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="21"/>
+    </row>
+    <row r="235" spans="2:10">
       <c r="B235" s="15" t="s">
         <v>8</v>
       </c>
@@ -6266,20 +6275,20 @@
       <c r="D235" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E235" s="16" t="s">
+      <c r="E235" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F235" s="18">
+      <c r="F235" s="19">
         <v>62000</v>
       </c>
-      <c r="G235" s="18">
+      <c r="G235" s="19">
         <v>1550000</v>
       </c>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="20"/>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H235" s="20"/>
+      <c r="I235" s="20"/>
+      <c r="J235" s="21"/>
+    </row>
+    <row r="236" spans="2:10">
       <c r="B236" s="15" t="s">
         <v>8</v>
       </c>
@@ -6289,20 +6298,20 @@
       <c r="D236" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E236" s="16" t="s">
+      <c r="E236" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F236" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G236" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="20"/>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F236" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G236" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20"/>
+      <c r="J236" s="21"/>
+    </row>
+    <row r="237" spans="2:10">
       <c r="B237" s="15" t="s">
         <v>8</v>
       </c>
@@ -6312,20 +6321,20 @@
       <c r="D237" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E237" s="16" t="s">
+      <c r="E237" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F237" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G237" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="20"/>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F237" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G237" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="21"/>
+    </row>
+    <row r="238" spans="2:10">
       <c r="B238" s="15" t="s">
         <v>8</v>
       </c>
@@ -6335,20 +6344,20 @@
       <c r="D238" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E238" s="16" t="s">
+      <c r="E238" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F238" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G238" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F238" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G238" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H238" s="20"/>
+      <c r="I238" s="20"/>
+      <c r="J238" s="21"/>
+    </row>
+    <row r="239" spans="2:10">
       <c r="B239" s="15" t="s">
         <v>8</v>
       </c>
@@ -6358,20 +6367,20 @@
       <c r="D239" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E239" s="16" t="s">
+      <c r="E239" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F239" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G239" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F239" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G239" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H239" s="20"/>
+      <c r="I239" s="20"/>
+      <c r="J239" s="21"/>
+    </row>
+    <row r="240" spans="2:10">
       <c r="B240" s="15" t="s">
         <v>8</v>
       </c>
@@ -6381,20 +6390,20 @@
       <c r="D240" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E240" s="16" t="s">
+      <c r="E240" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F240" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G240" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F240" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G240" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20"/>
+      <c r="J240" s="21"/>
+    </row>
+    <row r="241" spans="2:10">
       <c r="B241" s="15" t="s">
         <v>8</v>
       </c>
@@ -6404,20 +6413,20 @@
       <c r="D241" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E241" s="16" t="s">
+      <c r="E241" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F241" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G241" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F241" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G241" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20"/>
+      <c r="J241" s="21"/>
+    </row>
+    <row r="242" spans="2:10">
       <c r="B242" s="15" t="s">
         <v>8</v>
       </c>
@@ -6427,20 +6436,20 @@
       <c r="D242" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E242" s="16" t="s">
+      <c r="E242" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F242" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G242" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F242" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G242" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H242" s="20"/>
+      <c r="I242" s="20"/>
+      <c r="J242" s="21"/>
+    </row>
+    <row r="243" spans="2:10">
       <c r="B243" s="15" t="s">
         <v>8</v>
       </c>
@@ -6450,20 +6459,20 @@
       <c r="D243" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E243" s="16" t="s">
+      <c r="E243" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F243" s="18">
+      <c r="F243" s="19">
         <v>62000</v>
       </c>
-      <c r="G243" s="18">
+      <c r="G243" s="19">
         <v>1550000</v>
       </c>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="20"/>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="21"/>
+    </row>
+    <row r="244" spans="2:10">
       <c r="B244" s="15" t="s">
         <v>8</v>
       </c>
@@ -6473,20 +6482,20 @@
       <c r="D244" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E244" s="16" t="s">
+      <c r="E244" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F244" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G244" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="20"/>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F244" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G244" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H244" s="20"/>
+      <c r="I244" s="20"/>
+      <c r="J244" s="21"/>
+    </row>
+    <row r="245" spans="2:10">
       <c r="B245" s="15" t="s">
         <v>8</v>
       </c>
@@ -6496,20 +6505,20 @@
       <c r="D245" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E245" s="16" t="s">
+      <c r="E245" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F245" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G245" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F245" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G245" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H245" s="20"/>
+      <c r="I245" s="20"/>
+      <c r="J245" s="21"/>
+    </row>
+    <row r="246" spans="2:10">
       <c r="B246" s="15" t="s">
         <v>8</v>
       </c>
@@ -6519,20 +6528,20 @@
       <c r="D246" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="16" t="s">
+      <c r="E246" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F246" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G246" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="20"/>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F246" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G246" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H246" s="20"/>
+      <c r="I246" s="20"/>
+      <c r="J246" s="21"/>
+    </row>
+    <row r="247" spans="2:10">
       <c r="B247" s="15" t="s">
         <v>8</v>
       </c>
@@ -6542,20 +6551,20 @@
       <c r="D247" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E247" s="16" t="s">
+      <c r="E247" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F247" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G247" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="20"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F247" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G247" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H247" s="20"/>
+      <c r="I247" s="20"/>
+      <c r="J247" s="21"/>
+    </row>
+    <row r="248" spans="2:10">
       <c r="B248" s="15" t="s">
         <v>8</v>
       </c>
@@ -6565,20 +6574,20 @@
       <c r="D248" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E248" s="16" t="s">
+      <c r="E248" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F248" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G248" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F248" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G248" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="21"/>
+    </row>
+    <row r="249" spans="2:10">
       <c r="B249" s="15" t="s">
         <v>8</v>
       </c>
@@ -6588,20 +6597,20 @@
       <c r="D249" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E249" s="16" t="s">
+      <c r="E249" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F249" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G249" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F249" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G249" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H249" s="20"/>
+      <c r="I249" s="20"/>
+      <c r="J249" s="21"/>
+    </row>
+    <row r="250" spans="2:10">
       <c r="B250" s="15" t="s">
         <v>8</v>
       </c>
@@ -6611,20 +6620,20 @@
       <c r="D250" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E250" s="16" t="s">
+      <c r="E250" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F250" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G250" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F250" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G250" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H250" s="20"/>
+      <c r="I250" s="20"/>
+      <c r="J250" s="21"/>
+    </row>
+    <row r="251" spans="2:10">
       <c r="B251" s="15" t="s">
         <v>8</v>
       </c>
@@ -6634,20 +6643,20 @@
       <c r="D251" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E251" s="16" t="s">
+      <c r="E251" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F251" s="18">
+      <c r="F251" s="19">
         <v>62000</v>
       </c>
-      <c r="G251" s="18">
+      <c r="G251" s="19">
         <v>1550000</v>
       </c>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H251" s="20"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="21"/>
+    </row>
+    <row r="252" spans="2:10">
       <c r="B252" s="15" t="s">
         <v>8</v>
       </c>
@@ -6657,20 +6666,20 @@
       <c r="D252" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E252" s="16" t="s">
+      <c r="E252" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F252" s="18">
+      <c r="F252" s="19">
         <v>28470</v>
       </c>
-      <c r="G252" s="18">
+      <c r="G252" s="19">
         <v>1423500</v>
       </c>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H252" s="20"/>
+      <c r="I252" s="20"/>
+      <c r="J252" s="21"/>
+    </row>
+    <row r="253" spans="2:10">
       <c r="B253" s="15" t="s">
         <v>8</v>
       </c>
@@ -6680,20 +6689,20 @@
       <c r="D253" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E253" s="16" t="s">
+      <c r="E253" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F253" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G253" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F253" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G253" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="21"/>
+    </row>
+    <row r="254" spans="2:10">
       <c r="B254" s="15" t="s">
         <v>8</v>
       </c>
@@ -6703,20 +6712,20 @@
       <c r="D254" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E254" s="16" t="s">
+      <c r="E254" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F254" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G254" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F254" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G254" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H254" s="20"/>
+      <c r="I254" s="20"/>
+      <c r="J254" s="21"/>
+    </row>
+    <row r="255" spans="2:10">
       <c r="B255" s="15" t="s">
         <v>8</v>
       </c>
@@ -6726,20 +6735,20 @@
       <c r="D255" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E255" s="16" t="s">
+      <c r="E255" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F255" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G255" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F255" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G255" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H255" s="20"/>
+      <c r="I255" s="20"/>
+      <c r="J255" s="21"/>
+    </row>
+    <row r="256" spans="2:10">
       <c r="B256" s="15" t="s">
         <v>8</v>
       </c>
@@ -6749,20 +6758,20 @@
       <c r="D256" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E256" s="16" t="s">
+      <c r="E256" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F256" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G256" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="20"/>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F256" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G256" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H256" s="20"/>
+      <c r="I256" s="20"/>
+      <c r="J256" s="21"/>
+    </row>
+    <row r="257" spans="2:10">
       <c r="B257" s="15" t="s">
         <v>8</v>
       </c>
@@ -6772,20 +6781,20 @@
       <c r="D257" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E257" s="16" t="s">
+      <c r="E257" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F257" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G257" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="20"/>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F257" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G257" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H257" s="20"/>
+      <c r="I257" s="20"/>
+      <c r="J257" s="21"/>
+    </row>
+    <row r="258" spans="2:10">
       <c r="B258" s="15" t="s">
         <v>8</v>
       </c>
@@ -6795,20 +6804,20 @@
       <c r="D258" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E258" s="16" t="s">
+      <c r="E258" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F258" s="18">
+      <c r="F258" s="19">
         <v>56940</v>
       </c>
-      <c r="G258" s="18">
+      <c r="G258" s="19">
         <v>1423500</v>
       </c>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="20"/>
-    </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H258" s="20"/>
+      <c r="I258" s="20"/>
+      <c r="J258" s="21"/>
+    </row>
+    <row r="259" spans="2:10">
       <c r="B259" s="15" t="s">
         <v>8</v>
       </c>
@@ -6818,20 +6827,20 @@
       <c r="D259" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E259" s="16" t="s">
+      <c r="E259" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F259" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G259" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="20"/>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F259" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G259" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="21"/>
+    </row>
+    <row r="260" spans="2:10">
       <c r="B260" s="15" t="s">
         <v>8</v>
       </c>
@@ -6841,20 +6850,20 @@
       <c r="D260" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E260" s="16" t="s">
+      <c r="E260" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F260" s="18">
+      <c r="F260" s="19">
         <v>56940</v>
       </c>
-      <c r="G260" s="18">
+      <c r="G260" s="19">
         <v>1423500</v>
       </c>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="20"/>
-    </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H260" s="20"/>
+      <c r="I260" s="20"/>
+      <c r="J260" s="21"/>
+    </row>
+    <row r="261" spans="2:10">
       <c r="B261" s="15" t="s">
         <v>8</v>
       </c>
@@ -6864,20 +6873,20 @@
       <c r="D261" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E261" s="16" t="s">
+      <c r="E261" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F261" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G261" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="20"/>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F261" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G261" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H261" s="20"/>
+      <c r="I261" s="20"/>
+      <c r="J261" s="21"/>
+    </row>
+    <row r="262" spans="2:10">
       <c r="B262" s="15" t="s">
         <v>8</v>
       </c>
@@ -6887,20 +6896,20 @@
       <c r="D262" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E262" s="16" t="s">
+      <c r="E262" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F262" s="18">
+      <c r="F262" s="19">
         <v>62000</v>
       </c>
-      <c r="G262" s="18">
+      <c r="G262" s="19">
         <v>1550000</v>
       </c>
-      <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="20"/>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H262" s="20"/>
+      <c r="I262" s="20"/>
+      <c r="J262" s="21"/>
+    </row>
+    <row r="263" spans="2:10">
       <c r="B263" s="15" t="s">
         <v>8</v>
       </c>
@@ -6910,20 +6919,20 @@
       <c r="D263" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E263" s="16" t="s">
+      <c r="E263" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F263" s="18">
+      <c r="F263" s="19">
         <v>56940</v>
       </c>
-      <c r="G263" s="18">
+      <c r="G263" s="19">
         <v>1423500</v>
       </c>
-      <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
-      <c r="J263" s="20"/>
-    </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H263" s="20"/>
+      <c r="I263" s="20"/>
+      <c r="J263" s="21"/>
+    </row>
+    <row r="264" spans="2:10">
       <c r="B264" s="15" t="s">
         <v>8</v>
       </c>
@@ -6933,20 +6942,20 @@
       <c r="D264" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E264" s="16" t="s">
+      <c r="E264" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F264" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G264" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
-      <c r="J264" s="20"/>
-    </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F264" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G264" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H264" s="20"/>
+      <c r="I264" s="20"/>
+      <c r="J264" s="21"/>
+    </row>
+    <row r="265" spans="2:10">
       <c r="B265" s="15" t="s">
         <v>8</v>
       </c>
@@ -6956,20 +6965,20 @@
       <c r="D265" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E265" s="16" t="s">
+      <c r="E265" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F265" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G265" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
-      <c r="J265" s="20"/>
-    </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F265" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G265" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+      <c r="J265" s="21"/>
+    </row>
+    <row r="266" spans="2:10">
       <c r="B266" s="15" t="s">
         <v>8</v>
       </c>
@@ -6979,20 +6988,20 @@
       <c r="D266" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E266" s="16" t="s">
+      <c r="E266" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F266" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G266" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H266" s="19"/>
-      <c r="I266" s="19"/>
-      <c r="J266" s="20"/>
-    </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F266" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G266" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H266" s="20"/>
+      <c r="I266" s="20"/>
+      <c r="J266" s="21"/>
+    </row>
+    <row r="267" spans="2:10">
       <c r="B267" s="15" t="s">
         <v>8</v>
       </c>
@@ -7002,20 +7011,20 @@
       <c r="D267" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E267" s="16" t="s">
+      <c r="E267" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F267" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G267" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
-      <c r="J267" s="20"/>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F267" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G267" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H267" s="20"/>
+      <c r="I267" s="20"/>
+      <c r="J267" s="21"/>
+    </row>
+    <row r="268" spans="2:10">
       <c r="B268" s="15" t="s">
         <v>8</v>
       </c>
@@ -7025,20 +7034,20 @@
       <c r="D268" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E268" s="16" t="s">
+      <c r="E268" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F268" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G268" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="20"/>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F268" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G268" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H268" s="20"/>
+      <c r="I268" s="20"/>
+      <c r="J268" s="21"/>
+    </row>
+    <row r="269" spans="2:10">
       <c r="B269" s="15" t="s">
         <v>8</v>
       </c>
@@ -7048,20 +7057,20 @@
       <c r="D269" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E269" s="16" t="s">
+      <c r="E269" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F269" s="18">
+      <c r="F269" s="19">
         <v>56940</v>
       </c>
-      <c r="G269" s="18">
+      <c r="G269" s="19">
         <v>1423500</v>
       </c>
-      <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
-      <c r="J269" s="20"/>
-    </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="J269" s="21"/>
+    </row>
+    <row r="270" spans="2:10">
       <c r="B270" s="15" t="s">
         <v>8</v>
       </c>
@@ -7071,20 +7080,20 @@
       <c r="D270" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E270" s="16" t="s">
+      <c r="E270" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F270" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G270" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H270" s="19"/>
-      <c r="I270" s="19"/>
-      <c r="J270" s="20"/>
-    </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F270" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G270" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H270" s="20"/>
+      <c r="I270" s="20"/>
+      <c r="J270" s="21"/>
+    </row>
+    <row r="271" spans="2:10">
       <c r="B271" s="15" t="s">
         <v>8</v>
       </c>
@@ -7094,20 +7103,20 @@
       <c r="D271" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E271" s="16" t="s">
+      <c r="E271" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F271" s="18">
+      <c r="F271" s="19">
         <v>56940</v>
       </c>
-      <c r="G271" s="18">
+      <c r="G271" s="19">
         <v>1423500</v>
       </c>
-      <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
-      <c r="J271" s="20"/>
-    </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+      <c r="J271" s="21"/>
+    </row>
+    <row r="272" spans="2:10">
       <c r="B272" s="15" t="s">
         <v>8</v>
       </c>
@@ -7117,20 +7126,20 @@
       <c r="D272" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E272" s="16" t="s">
+      <c r="E272" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F272" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G272" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H272" s="19"/>
-      <c r="I272" s="19"/>
-      <c r="J272" s="20"/>
-    </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F272" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G272" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H272" s="20"/>
+      <c r="I272" s="20"/>
+      <c r="J272" s="21"/>
+    </row>
+    <row r="273" spans="2:10">
       <c r="B273" s="15" t="s">
         <v>8</v>
       </c>
@@ -7140,20 +7149,20 @@
       <c r="D273" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E273" s="16" t="s">
+      <c r="E273" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F273" s="18">
+      <c r="F273" s="19">
         <v>62000</v>
       </c>
-      <c r="G273" s="18">
+      <c r="G273" s="19">
         <v>1550000</v>
       </c>
-      <c r="H273" s="19"/>
-      <c r="I273" s="19"/>
-      <c r="J273" s="20"/>
-    </row>
-    <row r="274" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H273" s="20"/>
+      <c r="I273" s="20"/>
+      <c r="J273" s="21"/>
+    </row>
+    <row r="274" spans="2:10">
       <c r="B274" s="15" t="s">
         <v>8</v>
       </c>
@@ -7163,20 +7172,20 @@
       <c r="D274" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E274" s="16" t="s">
+      <c r="E274" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F274" s="18">
+      <c r="F274" s="19">
         <v>56940</v>
       </c>
-      <c r="G274" s="18">
+      <c r="G274" s="19">
         <v>1423500</v>
       </c>
-      <c r="H274" s="19"/>
-      <c r="I274" s="19"/>
-      <c r="J274" s="20"/>
-    </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H274" s="20"/>
+      <c r="I274" s="20"/>
+      <c r="J274" s="21"/>
+    </row>
+    <row r="275" spans="2:10">
       <c r="B275" s="15" t="s">
         <v>8</v>
       </c>
@@ -7186,20 +7195,20 @@
       <c r="D275" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E275" s="16" t="s">
+      <c r="E275" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F275" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G275" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H275" s="19"/>
-      <c r="I275" s="19"/>
-      <c r="J275" s="20"/>
-    </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F275" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G275" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H275" s="20"/>
+      <c r="I275" s="20"/>
+      <c r="J275" s="21"/>
+    </row>
+    <row r="276" spans="2:10">
       <c r="B276" s="15" t="s">
         <v>8</v>
       </c>
@@ -7209,20 +7218,20 @@
       <c r="D276" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E276" s="16" t="s">
+      <c r="E276" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F276" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G276" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H276" s="19"/>
-      <c r="I276" s="19"/>
-      <c r="J276" s="20"/>
-    </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F276" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G276" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H276" s="20"/>
+      <c r="I276" s="20"/>
+      <c r="J276" s="21"/>
+    </row>
+    <row r="277" spans="2:10">
       <c r="B277" s="15" t="s">
         <v>8</v>
       </c>
@@ -7232,20 +7241,20 @@
       <c r="D277" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E277" s="16" t="s">
+      <c r="E277" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F277" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G277" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H277" s="19"/>
-      <c r="I277" s="19"/>
-      <c r="J277" s="20"/>
-    </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F277" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G277" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H277" s="20"/>
+      <c r="I277" s="20"/>
+      <c r="J277" s="21"/>
+    </row>
+    <row r="278" spans="2:10">
       <c r="B278" s="15" t="s">
         <v>8</v>
       </c>
@@ -7255,70 +7264,323 @@
       <c r="D278" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E278" s="16" t="s">
+      <c r="E278" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F278" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G278" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H278" s="19"/>
-      <c r="I278" s="19"/>
-      <c r="J278" s="20"/>
-    </row>
-    <row r="279" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B279" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C279" s="22" t="s">
+      <c r="F278" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G278" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H278" s="20"/>
+      <c r="I278" s="20"/>
+      <c r="J278" s="21"/>
+    </row>
+    <row r="279" spans="2:10">
+      <c r="B279" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D279" s="23" t="s">
+      <c r="D279" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E279" s="22" t="s">
+      <c r="E279" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F279" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G279" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H279" s="25"/>
-      <c r="I279" s="25"/>
-      <c r="J279" s="26"/>
-    </row>
-    <row r="284" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B284" s="32" t="s">
+      <c r="F279" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G279" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H279" s="20"/>
+      <c r="I279" s="20"/>
+      <c r="J279" s="21"/>
+    </row>
+    <row r="280" spans="2:10">
+      <c r="B280" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E280" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F280" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G280" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H280" s="20"/>
+      <c r="I280" s="20"/>
+      <c r="J280" s="21"/>
+    </row>
+    <row r="281" spans="2:10">
+      <c r="B281" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E281" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F281" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G281" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H281" s="20"/>
+      <c r="I281" s="20"/>
+      <c r="J281" s="21"/>
+    </row>
+    <row r="282" spans="2:10">
+      <c r="B282" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E282" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F282" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G282" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H282" s="20"/>
+      <c r="I282" s="20"/>
+      <c r="J282" s="21"/>
+    </row>
+    <row r="283" spans="2:10">
+      <c r="B283" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E283" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F283" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G283" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H283" s="20"/>
+      <c r="I283" s="20"/>
+      <c r="J283" s="21"/>
+    </row>
+    <row r="284" spans="2:10">
+      <c r="B284" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E284" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F284" s="19">
+        <v>62000</v>
+      </c>
+      <c r="G284" s="19">
+        <v>1550000</v>
+      </c>
+      <c r="H284" s="20"/>
+      <c r="I284" s="20"/>
+      <c r="J284" s="21"/>
+    </row>
+    <row r="285" spans="2:10">
+      <c r="B285" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D285" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E285" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F285" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G285" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H285" s="20"/>
+      <c r="I285" s="20"/>
+      <c r="J285" s="21"/>
+    </row>
+    <row r="286" spans="2:10">
+      <c r="B286" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E286" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F286" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G286" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H286" s="20"/>
+      <c r="I286" s="20"/>
+      <c r="J286" s="21"/>
+    </row>
+    <row r="287" spans="2:10">
+      <c r="B287" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F287" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G287" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H287" s="20"/>
+      <c r="I287" s="20"/>
+      <c r="J287" s="21"/>
+    </row>
+    <row r="288" spans="2:10">
+      <c r="B288" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D288" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E288" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F288" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G288" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H288" s="20"/>
+      <c r="I288" s="20"/>
+      <c r="J288" s="21"/>
+    </row>
+    <row r="289" spans="2:10">
+      <c r="B289" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E289" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F289" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G289" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H289" s="20"/>
+      <c r="I289" s="20"/>
+      <c r="J289" s="21"/>
+    </row>
+    <row r="290" spans="2:10">
+      <c r="B290" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D290" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E290" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F290" s="26">
+        <v>46400</v>
+      </c>
+      <c r="G290" s="26">
+        <v>1160000</v>
+      </c>
+      <c r="H290" s="27"/>
+      <c r="I290" s="27"/>
+      <c r="J290" s="28"/>
+    </row>
+    <row r="295" spans="2:10">
+      <c r="B295" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C295" s="34"/>
+      <c r="H295" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+    </row>
+    <row r="296" spans="2:10">
+      <c r="B296" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C284" s="32"/>
-      <c r="H284" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I284" s="1"/>
-      <c r="J284" s="1"/>
-    </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B285" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C285" s="32"/>
-      <c r="H285" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I285" s="1"/>
-      <c r="J285" s="1"/>
+      <c r="C296" s="34"/>
+      <c r="H296" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="H285:J285"/>
-    <mergeCell ref="H284:J284"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="H296:J296"/>
+    <mergeCell ref="H295:J295"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
